--- a/biology/Botanique/Hymenophyllum_fuscum/Hymenophyllum_fuscum.xlsx
+++ b/biology/Botanique/Hymenophyllum_fuscum/Hymenophyllum_fuscum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hymenophylle sombre - Hymenophyllum fuscum - est une fougère de la famille des Hyménophyllacées originaire d'Indonésie (île de Java).
 Synonymes : Amphipterum fuscum (Blume) C.Presl, Didymoglossum fuscum (Blume) Hassk., Hymenophyllum dipteroneuron A.Br. ex Kunze, Trichomanes fuscum Blume
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hymenophyllum fuscum appartient au sous-genre Hymenophyllum.
 Cette espèce a les caractéristiques suivantes :
@@ -551,7 +565,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, plutôt épiphyte de forêts pluviales, est présente en Indonésie (Java).
 </t>
@@ -582,16 +598,18 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum fuscum a été de nombreuses fois déplacée dans la famille des Hymenophyllacées et illustre, à l'instar de nombreuses autres, le jeu de piste des espèces de cette famille.
 Cette espèce est décrite une première fois par Carl Ludwig Blume en 1828.
-En 1849, Karel Bořivoj Presl la place dans le genre Amphipterum : Amphipterum fuscum (Blume) C.Presl[1].
+En 1849, Karel Bořivoj Presl la place dans le genre Amphipterum : Amphipterum fuscum (Blume) C.Presl.
 Peu après, en 1857, Justus Carl Hasskarl en fait une espèce du genre Didymoglossum : Didymoglossum fuscum (Blume) Hassk.
-Roelof Benjamin van den Bosch la place dans le genre Hymenophyllum en 1861[2].
-En 1905, Carl Frederik Albert Christensen confirme cette position dans le genre Hymenophyllum, sous-genre Euhymenophyllum section Amphipterum[3]
-Puis Edwin Bingham Copeland la replace d'abord en 1937 dans un sous-genre : Hymenophyllum subgen Amphipterum puis en 1938 dans le genre Amphipterum[4].
-En 1968, Conrad Vernon Morton la replace dans le genre Hymenophyllum, sous-genre Mecodium, section Amphipterum[5].
+Roelof Benjamin van den Bosch la place dans le genre Hymenophyllum en 1861.
+En 1905, Carl Frederik Albert Christensen confirme cette position dans le genre Hymenophyllum, sous-genre Euhymenophyllum section Amphipterum
+Puis Edwin Bingham Copeland la replace d'abord en 1937 dans un sous-genre : Hymenophyllum subgen Amphipterum puis en 1938 dans le genre Amphipterum.
+En 1968, Conrad Vernon Morton la replace dans le genre Hymenophyllum, sous-genre Mecodium, section Amphipterum.
 Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito la replacent dans le sous-genre Hymenenophyllum, la section disparaissant.
 </t>
         </is>
